--- a/biology/Zoologie/Chrysodeixis/Chrysodeixis.xlsx
+++ b/biology/Zoologie/Chrysodeixis/Chrysodeixis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysodeixis est un genre de lépidoptères (papillons) nocturnes de la famille des Noctuidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysodeixis acuta - Tunbridge Wells Gem (Walker, [1858])
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysodeixis acuta - Tunbridge Wells Gem (Walker, )
 Chrysodeixis argentifera - Tobacco Looper (Guenée, 1852)
 Chrysodeixis celebensis Dufay, 1974
 Chrysodeixis chalcites - Tomato Looper (Esper, 1789)
@@ -526,7 +540,7 @@
 Chrysodeixis heberachis (Strand, 1920)
 Chrysodeixis illuminata (Robinson, 1968)
 Chrysodeixis imitans Behounek &amp; Ronkay, 1999
-Chrysodeixis includens - Soybean Looper (Walker, [1858]) - Chenille arpenteuse du soja
+Chrysodeixis includens - Soybean Looper (Walker, ) - Chenille arpenteuse du soja
 Chrysodeixis kebea (Bethune-Baker, 1906)
 Chrysodeixis kebeana (Bethune-Baker, 1906)
 Chrysodeixis keili Behounek &amp; Ronkay, 1999
